--- a/Assets/Spreadsheet/Scripts/Title.xlsx
+++ b/Assets/Spreadsheet/Scripts/Title.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R72cc8312a5884b94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R78fb365ea01c4273"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Assets/Spreadsheet/Scripts/Title.xlsx
+++ b/Assets/Spreadsheet/Scripts/Title.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R78fb365ea01c4273"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R0624c52b18764efc"/>
   </x:sheets>
 </x:workbook>
 </file>
